--- a/biology/Médecine/Hieronymus_David_Gaubius/Hieronymus_David_Gaubius.xlsx
+++ b/biology/Médecine/Hieronymus_David_Gaubius/Hieronymus_David_Gaubius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hieronymus David Gaubius (ou Jérôme Gaub), né le 24 février 1705 à Heidelberg et mort le 29 novembre 1780 à Leyde est un médecin et chimiste allemand dont la carrière s'est déroulée principalement en Hollande (Provinces-Unies).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une riche famille protestante, il est le fils d'un chapelier, Johann Christoph Gaub, également actif dans son église dont il est le plus ancien président et d'Anna Katharina, veuve Nagel. Il reçoit sa première instruction à l'école catholique jésuite de Heidelberg, mais, pour des raisons religieuses, son père souhaite le voir poursuivre son éducation auprès d'August Hermann Francke, dans un orphelinat de Halle. La rigueur de l'enseignement dans cet établissement n'éveille rien chez le jeune Gaub qui puisse laisser prévoir son développement intellectuel ultérieur : en effet  Francke dira plus tard à son père qu'il ne serait bon qu'à devenir un marchand et n'avait aucune aptitude pour se lancer dans une carrière académique. C'est ce qui décide son père à l'envoyer à Amsterdam, où l'oncle de Hieronymus, Johannes Gaub est médecin de ville. Cette profession fait naître chez le jeune Gaub un certain intérêt pour la science médicale. Avec le consentement de son père, il commence ses études de médecine à l'université de Harderwijk où il s’inscrit le 1er juin 1722. Il y suit un certain nombre de conférences, en particulier celles de Bartholomaeus de Moor (1649-1724). Un an plus tard, il change d'établissement  pour rejoindre l'université de Leyde où siège à cette époque le plus ancien centre médical d'Europe et où il est l'élève d'Hermann Boerhaave (1668–1738), d’Hermann Oosterdijk Schacht (1679-1744), de Bernhard Siegfried Albinus (1697–1770) et de David van Royen (1727-1799).
 Par son ardeur et son application aux études, il gagne l'estime de ses maîtres et devient l'élève préféré de Boerhaave. C'est sous la direction de ce dernier qu'il obtient, le 24 août 1725 à Leyde, son doctorat en médecine en soutenant une thèse sur la médecine psychosomatique intitulée : Dissertatio, qua idea generalis solidarum humani corporis partiur exhibitur. Ce travail critique l'animisme et l'harmonie préétablie de Georg Ernst Stahl (1659-1734) et fera plus tard l'objet d'une publication. Après sa soutenance il va poursuivre sa formation clinique durant une année à Paris. Après un bref séjour à Strasbourg et à Heidelberg, il retourne aux Provinces-Unies pour y pratiquer la médecine. Sur les conseils de son oncle, il s'installe à Deventer, où il est nommé médecin municipal (Stadtphysikus).
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un de ses travaux les plus connus est  Institutiones Pathologiae medicinalis, un ouvrage de  pathologie systématique publié en 1758 resté populaire durant de nombreuses années.
 </t>
